--- a/NITO/testData/Dataxlsx.xlsx
+++ b/NITO/testData/Dataxlsx.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="6255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="6255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="client" sheetId="4" r:id="rId2"/>
     <sheet name="Register" sheetId="2" r:id="rId3"/>
-    <sheet name="PNR" sheetId="3" r:id="rId4"/>
+    <sheet name="Student" sheetId="3" r:id="rId4"/>
+    <sheet name="StudentDataDriven" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>username</t>
   </si>
@@ -154,6 +155,18 @@
   </si>
   <si>
     <t>Electus 2</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>masthan</t>
+  </si>
+  <si>
+    <t>ExampleLastName</t>
+  </si>
+  <si>
+    <t>TestUserName</t>
   </si>
 </sst>
 </file>
@@ -493,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -546,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -745,12 +758,180 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NITO/testData/Dataxlsx.xlsx
+++ b/NITO/testData/Dataxlsx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="6255" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="6255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="Register" sheetId="2" r:id="rId3"/>
     <sheet name="Student" sheetId="3" r:id="rId4"/>
     <sheet name="StudentDataDriven" sheetId="5" r:id="rId5"/>
+    <sheet name="Contact" sheetId="8" r:id="rId6"/>
+    <sheet name="Admin" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>username</t>
   </si>
@@ -167,13 +169,28 @@
   </si>
   <si>
     <t>TestUserName</t>
+  </si>
+  <si>
+    <t>allabakshu18@gmail.com</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Jeevan</t>
+  </si>
+  <si>
+    <t>Reddy</t>
+  </si>
+  <si>
+    <t>jeevan@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +208,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,10 +244,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -234,8 +260,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,7 +537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -805,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -934,4 +965,91 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>9494830413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>9876543210</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NITO/testData/Dataxlsx.xlsx
+++ b/NITO/testData/Dataxlsx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="6255" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="6255" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="StudentDataDriven" sheetId="5" r:id="rId5"/>
     <sheet name="Contact" sheetId="8" r:id="rId6"/>
     <sheet name="Admin" sheetId="9" r:id="rId7"/>
+    <sheet name="adminDataDriven" sheetId="10" r:id="rId8"/>
+    <sheet name="Test" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
   <si>
     <t>username</t>
   </si>
@@ -184,6 +186,18 @@
   </si>
   <si>
     <t>jeevan@gmail.com</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>electus999</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>Johnny@123</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1052,4 +1066,139 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>